--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -175,12 +175,12 @@
     <t>well</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -193,16 +193,16 @@
     <t>safety</t>
   </si>
   <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>hope</t>
@@ -2201,25 +2201,25 @@
         <v>53</v>
       </c>
       <c r="K33">
-        <v>0.6939655172413793</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L33">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2227,25 +2227,25 @@
         <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6764705882352942</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="N34">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2357,25 +2357,25 @@
         <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5987841945288754</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L39">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>132</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2383,25 +2383,25 @@
         <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5909090909090909</v>
+        <v>0.5842105263157895</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2409,25 +2409,25 @@
         <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5842105263157895</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L41">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>158</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2435,13 +2435,13 @@
         <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5806451612903226</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="10:17">
